--- a/Documents/労金AML_ビートル＆ツール資料20250713.xlsx
+++ b/Documents/労金AML_ビートル＆ツール資料20250713.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB670E7-484B-497C-BCA9-CC7AEE69AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D99C7-3C7C-4608-80E6-D66CB6B4F5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ビートルステータス" sheetId="1" r:id="rId1"/>
     <sheet name="（団体）フロー" sheetId="2" r:id="rId2"/>
-    <sheet name="管理ツール画面" sheetId="3" r:id="rId3"/>
+    <sheet name="管理ツール画面（MAIN)" sheetId="3" r:id="rId3"/>
+    <sheet name="WEBCADデータ変換" sheetId="4" r:id="rId4"/>
+    <sheet name="審査" sheetId="5" r:id="rId5"/>
+    <sheet name="不備状印刷" sheetId="6" r:id="rId6"/>
+    <sheet name="仕分けリスト印刷" sheetId="7" r:id="rId7"/>
+    <sheet name="勘定系納品" sheetId="8" r:id="rId8"/>
+    <sheet name="金庫事務用納品" sheetId="9" r:id="rId9"/>
+    <sheet name="不備納品" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1316,13 +1323,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,23 +1509,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>408787</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180232</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142363</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>18617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64397C78-C5A3-B08C-A25F-BF2B4E0F4C8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5731FD-CBB2-9C26-E478-9D37E55C5C3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,8 +1541,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11934825" y="1143000"/>
-          <a:ext cx="6304762" cy="5942857"/>
+          <a:off x="161925" y="123825"/>
+          <a:ext cx="4095238" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142606</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349353D3-4909-3192-0B16-A4304FD2E379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="66675"/>
+          <a:ext cx="2152381" cy="2200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218806</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41F6FEF-5F77-FA58-44B1-31BC195C7DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="57150"/>
+          <a:ext cx="2152381" cy="2904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,23 +1651,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>380731</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66418</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265764</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EB9812-DDFE-2B25-53E7-53A6918BEAF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92938917-D271-7FEE-0827-1793F526898C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,8 +1683,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="1104900"/>
-          <a:ext cx="2152381" cy="2057143"/>
+          <a:off x="2381250" y="123825"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218287</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D782463E-22A1-55D4-072B-F86461079C29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="28575"/>
+          <a:ext cx="6304762" cy="5942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1590,23 +1744,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>580756</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66330</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523336</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>218309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A7E333A-17BF-C649-0436-67C02BC108B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946758C9-7206-019A-0080-E5E2C390B364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="47625"/>
+          <a:ext cx="4314286" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3073C792-9F4F-54BE-B4DE-98CF2AC48500}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,8 +1820,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9401175" y="1114425"/>
-          <a:ext cx="2152381" cy="2761905"/>
+          <a:off x="10953750" y="85726"/>
+          <a:ext cx="4371975" cy="6170529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>675740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23434BCD-9B17-347E-E4AD-4A10A31F5D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="114300"/>
+          <a:ext cx="4276190" cy="6104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1634,23 +1881,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>94724</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>132765</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304274</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F14064-3220-2A48-9418-BC36B7397176}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9EB164-0133-0E17-A66E-019CA82F0AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,14 +1906,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="4981575"/>
+          <a:off x="209550" y="114300"/>
           <a:ext cx="4209524" cy="4676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1676,25 +1923,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>18781</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>132951</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28142</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE1F622-56D3-4BCF-3CB9-756A60030AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2AF419-78A8-E544-E367-349DC9AF0550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,15 +1955,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781800" y="5038725"/>
-          <a:ext cx="2152381" cy="3190476"/>
+          <a:off x="190500" y="133350"/>
+          <a:ext cx="2152381" cy="3466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,25 +1972,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304531</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28249</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190231</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9648389-6B1A-D309-7946-8663119E57CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF15A3CF-799C-EB22-2BE9-7713EC32C9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,15 +2004,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9124950" y="5038725"/>
-          <a:ext cx="2152381" cy="2609524"/>
+          <a:off x="95250" y="66675"/>
+          <a:ext cx="2152381" cy="2895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1764,25 +2021,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609331</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180669</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171181</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08376C7-2C5F-29C4-0E27-69C94D8BD8A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A375EDA6-1838-A5B2-041F-1F141A234B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,896 +2053,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9429750" y="7972425"/>
-          <a:ext cx="2152381" cy="2447619"/>
+          <a:off x="76200" y="76200"/>
+          <a:ext cx="2152381" cy="2580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180559</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF914C6E-7FA1-8B35-ABDA-034C954450E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="228600" y="1143000"/>
-          <a:ext cx="4381500" cy="3323809"/>
-          <a:chOff x="2324100" y="1000125"/>
-          <a:chExt cx="4381500" cy="3323809"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F7B31A-062E-4B84-57AE-7E8796D3968D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2524125" y="1000125"/>
-            <a:ext cx="4095238" cy="3323809"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043A7F12-CEE3-9374-E406-A0DFE2C9BAB8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="2324100" y="1476375"/>
-            <a:ext cx="4381500" cy="2333625"/>
-            <a:chOff x="2324100" y="1476375"/>
-            <a:chExt cx="4381500" cy="2333625"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="楕円 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F911E1-287B-9AA1-DA86-310F13EFBDE2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4638675" y="2324100"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>07</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="楕円 13">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F920CD-C558-47AF-914D-6712453C0D75}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6238875" y="1924050"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>06</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="楕円 14">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D55F56-F9A5-46FE-A35B-F9240EB6AB11}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4362450" y="1485900"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>05</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="楕円 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA7A708-6090-4F33-9822-6068E15D3DA3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2476500" y="3381375"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>04</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="楕円 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB62D0AD-841B-4806-964E-01E9AAAE3D13}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4133850" y="2962275"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>03</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="楕円 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DF3293-34C4-4C81-976B-256C6EFBFDA9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2324100" y="1476375"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>01</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="楕円 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1F1F9A-E625-4BAA-8CEC-BE5FC84ADD80}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2352675" y="2590800"/>
-              <a:ext cx="466725" cy="428625"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-                <a:t>02</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E50A411-22DE-4580-A036-E18EB3D0D952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6267450" y="914400"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F06F4F9-A3E1-4D06-A354-435F5F5E1511}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9153525" y="981075"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>02</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169E2859-A61D-4226-BB8F-F3447878BD0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11868150" y="904875"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>03</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E27A7D-673A-4712-81D7-1731898269B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1771650" y="4829175"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>04</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EA8B94-41DA-4EFE-8631-F29146B5C7BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="4819650"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>05</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788BECA9-205F-4E5F-B760-8DE0306D7CFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9096375" y="7877175"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>07</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C68C888-A368-4FD9-AA77-A33463C85235}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8982075" y="4914900"/>
-          <a:ext cx="466725" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>06</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2951,7 +2338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -3300,6 +2689,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4810675-2605-4D10-ABF6-BFCEAC7ECF68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3479,42 +2884,42 @@
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="12"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="12"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="10" t="s">
         <v>95</v>
       </c>
@@ -3527,9 +2932,9 @@
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="10" t="s">
         <v>97</v>
       </c>
@@ -3646,13 +3051,13 @@
       </c>
     </row>
     <row r="46" spans="4:8">
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H46" s="10" t="s">
@@ -3660,25 +3065,25 @@
       </c>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="10" t="s">
         <v>120</v>
       </c>
@@ -3787,7 +3192,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F481B21-572B-4098-A7AC-D7A68F2F12FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F64C7-4616-4355-BD8F-E0312C71EE66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E059972F-9A3F-4E1E-A2A1-985E147AF4CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430442EE-2B87-4402-ACC0-F17E6D3FB627}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE725260-0A1A-4FDA-95C0-3143CC043AD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FC989A-84A4-4E8B-BC8A-F63AA166F620}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B589B95-BE78-4E7A-A0FC-B4F69DC7D35F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
